--- a/biology/Médecine/Poujank/Poujank.xlsx
+++ b/biology/Médecine/Poujank/Poujank.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Poujank (arménien : Բուժանք, littéralement « Guérison ») est une revue médicale en langue arménienne publiée entre 1926 et 1930 à Paris[1].
+Poujank (arménien : Բուժանք, littéralement « Guérison ») est une revue médicale en langue arménienne publiée entre 1926 et 1930 à Paris.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poujank est fondée en juillet 1926[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poujank est fondée en juillet 1926.
 Cette revue publie des articles médicaux, ainsi que des articles consacrés à l'histoire de la médecine arménienne, à des médecins célèbres, à la santé dans le sport ou à l'école, mais aussi à la médecine traditionnelle. Poujank s'intéresse aussi à l'état de la médecine en Arménie soviétique.
-Des écrivains et médecins comme Vahram Torkomian ou Garabed Basmadjian sont liés à la revue[3].
+Des écrivains et médecins comme Vahram Torkomian ou Garabed Basmadjian sont liés à la revue.
 Elle cesse d'être publiée en 1930.
 </t>
         </is>
